--- a/biology/Zoologie/Grand_Éclectus/Grand_Éclectus.xlsx
+++ b/biology/Zoologie/Grand_Éclectus/Grand_Éclectus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_%C3%89clectus</t>
+          <t>Grand_Éclectus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eclectus roratus
 Le Grand Éclectus  ou Éclectus (Eclectus roratus) est une espèce d'oiseaux de la famille des Psittaculidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_%C3%89clectus</t>
+          <t>Grand_Éclectus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cas particulier chez les psittacidés, il présente un dimorphisme sexuel marqué. Les mâles ont un bec couleur corail, un plumage vert avec des plumes rouges et bleues au niveau des ailes et de la queue. Les femelles ont un bec noir, un plumage rouge au niveau de la tête et de la queue, bleu au niveau de la poitrine et de la nuque. Ces différences ont conduit les premiers ornithologues européens les rencontrant, à les considérer comme des espèces distinctes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cas particulier chez les psittacidés, il présente un dimorphisme sexuel marqué. Les mâles ont un bec couleur corail, un plumage vert avec des plumes rouges et bleues au niveau des ailes et de la queue. Les femelles ont un bec noir, un plumage rouge au niveau de la tête et de la queue, bleu au niveau de la poitrine et de la nuque. Ces différences ont conduit les premiers ornithologues européens les rencontrant, à les considérer comme des espèces distinctes.
 Cet oiseau mesure 33 à 40 cm pour une masse comprise entre 380 et 600 g.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand_%C3%89clectus</t>
+          <t>Grand_Éclectus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'éclectus, comme tous les perroquets se nourrit de fruits, de noix et de graines. Son fruit préféré est la grenade mais il se nourrit de la plupart des fruits: mangues, figues, goyaves, cerises, bananes, melons, fruits à noyau (pêches, prunes, etc.), agrumes, poires, pommes. Ne pas leur donner en captivité d'avocats, salade verte, de chocolat ou du persil. Les noisettes sont déconseillées dans leur alimentation.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grand_%C3%89clectus</t>
+          <t>Grand_Éclectus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les grands eclectus vivent dans des habitats variés tels que les forêts, les savanes, des plantations de cocotier voire des parcelles d'eucalyptus[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les grands eclectus vivent dans des habitats variés tels que les forêts, les savanes, des plantations de cocotier voire des parcelles d'eucalyptus.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grand_%C3%89clectus</t>
+          <t>Grand_Éclectus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le grand éclectus est un oiseau prudent qui est surtout actif pendant l'aube et le crépuscule. Il vit en solitaire ou dans un petit groupe. Il est reconnaissable par son cri rauque et il lui arrive de planer tel un faucon au dessus des forêts[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le grand éclectus est un oiseau prudent qui est surtout actif pendant l'aube et le crépuscule. Il vit en solitaire ou dans un petit groupe. Il est reconnaissable par son cri rauque et il lui arrive de planer tel un faucon au dessus des forêts.
 </t>
         </is>
       </c>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grand_%C3%89clectus</t>
+          <t>Grand_Éclectus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple la Nouvelle-Guinée, les Moluques, les îles Salomon et le nord de la Péninsule du cap York.
 </t>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Grand_%C3%89clectus</t>
+          <t>Grand_Éclectus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,7 +690,9 @@
           <t>Position systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Seule espèce de son genre (Eclectus Wagler, 1832), le grand éclectus a parfois été rapproché des loriinés, mais les derniers tests ADN semblent confirmer ses relations avec les autres perroquets australiens (psittacinés).
 </t>
@@ -681,7 +705,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Grand_%C3%89clectus</t>
+          <t>Grand_Éclectus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -699,7 +723,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par neuf sous-espèces :
 Eclectus roratus aruensis G.R. Gray, 1858
